--- a/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
@@ -413,7 +413,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R283-NiveauConfidentialite/TRE_R283-NiveauConfidentialite</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R283-NiveauConfidentialite/TRE-R283-NiveauConfidentialite</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidentiality-level</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidentiality-level</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-confidentiality-level</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T00:00:00+02:00</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -243,21 +243,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -1085,10 +1085,10 @@
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1113,7 +1113,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1188,7 +1188,7 @@
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1291,7 +1291,7 @@
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
@@ -1316,10 +1316,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1393,10 +1393,10 @@
         <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
@@ -1421,10 +1421,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1499,7 +1499,7 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
@@ -1527,7 +1527,7 @@
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1602,7 +1602,7 @@
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
@@ -1630,7 +1630,7 @@
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -1707,7 +1707,7 @@
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>74</v>
@@ -1735,7 +1735,7 @@
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -1812,7 +1812,7 @@
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>74</v>
@@ -1840,7 +1840,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1915,7 +1915,7 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>74</v>
@@ -1943,7 +1943,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2020,7 +2020,7 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
@@ -2048,7 +2048,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2127,7 +2127,7 @@
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
@@ -2155,7 +2155,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2232,7 +2232,7 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
@@ -2260,7 +2260,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -2337,7 +2337,7 @@
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
@@ -2365,7 +2365,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2442,7 +2442,7 @@
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
@@ -2470,7 +2470,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2549,7 +2549,7 @@
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
@@ -2577,7 +2577,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -2656,7 +2656,7 @@
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
